--- a/biology/Histoire de la zoologie et de la botanique/Xu_Xing/Xu_Xing.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Xu_Xing/Xu_Xing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xu Xing, (chinois : 徐星), est un paléontologue chinois, né à Yining (Xinjiang) en 1969. Diplômé du département de géologie de l'université de Pékin, il est chercheur à l'Institut de paléontologie des vertébrés et de paléoanthropologie de l'Académie chinoise des sciences.
-Il a notamment contribué à la découverte et l'analyse de dinosaures présentant des caractéristiques aviaires, ainsi qu'au développement de théories sur l'évolution des plumes[1],[2],.
-Il a nommé de nombreux dinosaures, dont Yinlong, Guanlong, Gigantoraptor, Mei, Xixianykus, Erliansaurus[3] et Jianianhualong[4], Yutyrannus ainsi que Kryptodrakon.
+Il a notamment contribué à la découverte et l'analyse de dinosaures présentant des caractéristiques aviaires, ainsi qu'au développement de théories sur l'évolution des plumes.
+Il a nommé de nombreux dinosaures, dont Yinlong, Guanlong, Gigantoraptor, Mei, Xixianykus, Erliansaurus et Jianianhualong, Yutyrannus ainsi que Kryptodrakon.
 </t>
         </is>
       </c>
